--- a/SOEPQ1_ImportPrepareData/variable-selection/soep-var-selection-xls.xlsx
+++ b/SOEPQ1_ImportPrepareData/variable-selection/soep-var-selection-xls.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Timm/Documents/Humboldt/5.Semester/SPL/Repository/spl-pirates/variable-selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Timm/Documents/Humboldt/5.Semester/SPL/Repository/spl-pirates/SOEPQ1_ImportPrepareData/variable-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D5C447-6562-D647-9947-42884D8EB92C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D187DD-18BB-B240-A533-6CCAF8F2F7F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16500"/>
   </bookViews>
   <sheets>
-    <sheet name="soep-feature-selection" sheetId="1" r:id="rId1"/>
+    <sheet name="soep-var-selection" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2220,7 +2215,7 @@
     <t>bgp1m02</t>
   </si>
   <si>
-    <t>Mini-Job (up too 400 EUR) Prev. Yr</t>
+    <t>Mini-Job (up too 400€) Prev. Yr</t>
   </si>
   <si>
     <t>bap1n01</t>
@@ -2244,7 +2239,7 @@
     <t>bgp1n01</t>
   </si>
   <si>
-    <t>Mini-Job (up too 400 EUR) No. Month Prev. Yr</t>
+    <t>Mini-Job (up too 400€) No. Month Prev. Yr</t>
   </si>
   <si>
     <t>bap1n02</t>
@@ -2295,31 +2290,325 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2327,16 +2616,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2647,20 +3124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:H112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.1640625" customWidth="1"/>
-    <col min="2" max="1025" width="10.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +3159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +3237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +3263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2816,7 +3289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2842,7 +3315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2868,7 +3341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2894,7 +3367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2920,7 +3393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +3419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2972,7 +3445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2998,7 +3471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3024,7 +3497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3050,7 +3523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3076,7 +3549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -3102,7 +3575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -3128,7 +3601,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -3154,7 +3627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -3180,7 +3653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -3206,7 +3679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -3232,7 +3705,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -3258,7 +3731,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3284,7 +3757,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -3310,7 +3783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -3336,7 +3809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -3362,7 +3835,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -3388,7 +3861,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -3414,7 +3887,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -3440,7 +3913,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -3466,7 +3939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -3492,7 +3965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -3518,7 +3991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>228</v>
       </c>
@@ -3544,7 +4017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>235</v>
       </c>
@@ -3570,7 +4043,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>241</v>
       </c>
@@ -3596,7 +4069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -3622,7 +4095,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -3648,7 +4121,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>265</v>
       </c>
@@ -3674,7 +4147,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -3700,7 +4173,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -3726,7 +4199,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>279</v>
       </c>
@@ -3752,7 +4225,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>287</v>
       </c>
@@ -3778,7 +4251,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>290</v>
       </c>
@@ -3804,7 +4277,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -3830,7 +4303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -3856,7 +4329,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>299</v>
       </c>
@@ -3882,7 +4355,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>302</v>
       </c>
@@ -3908,7 +4381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -3934,7 +4407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>306</v>
       </c>
@@ -3960,7 +4433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -3986,7 +4459,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>314</v>
       </c>
@@ -4012,7 +4485,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -4038,7 +4511,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>325</v>
       </c>
@@ -4064,7 +4537,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -4090,7 +4563,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>337</v>
       </c>
@@ -4116,7 +4589,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>343</v>
       </c>
@@ -4142,7 +4615,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>349</v>
       </c>
@@ -4168,7 +4641,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>355</v>
       </c>
@@ -4194,7 +4667,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -4220,7 +4693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>367</v>
       </c>
@@ -4246,7 +4719,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -4272,7 +4745,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -4298,7 +4771,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>386</v>
       </c>
@@ -4324,7 +4797,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -4350,7 +4823,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>402</v>
       </c>
@@ -4376,7 +4849,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>410</v>
       </c>
@@ -4402,7 +4875,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>418</v>
       </c>
@@ -4428,7 +4901,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>423</v>
       </c>
@@ -4454,7 +4927,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>429</v>
       </c>
@@ -4480,7 +4953,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>435</v>
       </c>
@@ -4506,7 +4979,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>441</v>
       </c>
@@ -4532,7 +5005,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>445</v>
       </c>
@@ -4558,7 +5031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>449</v>
       </c>
@@ -4584,7 +5057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>452</v>
       </c>
@@ -4610,7 +5083,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>460</v>
       </c>
@@ -4636,7 +5109,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>468</v>
       </c>
@@ -4662,7 +5135,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>476</v>
       </c>
@@ -4688,7 +5161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -4714,7 +5187,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>491</v>
       </c>
@@ -4740,7 +5213,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>499</v>
       </c>
@@ -4766,7 +5239,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>507</v>
       </c>
@@ -4792,7 +5265,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>515</v>
       </c>
@@ -4818,7 +5291,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>523</v>
       </c>
@@ -4844,7 +5317,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>531</v>
       </c>
@@ -4870,7 +5343,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>539</v>
       </c>
@@ -4896,7 +5369,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>547</v>
       </c>
@@ -4922,7 +5395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>555</v>
       </c>
@@ -4948,7 +5421,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>563</v>
       </c>
@@ -4974,7 +5447,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>571</v>
       </c>
@@ -5000,7 +5473,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>579</v>
       </c>
@@ -5026,7 +5499,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>587</v>
       </c>
@@ -5052,7 +5525,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>595</v>
       </c>
@@ -5078,7 +5551,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>603</v>
       </c>
@@ -5104,7 +5577,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>611</v>
       </c>
@@ -5130,7 +5603,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>619</v>
       </c>
@@ -5156,7 +5629,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>627</v>
       </c>
@@ -5182,7 +5655,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>635</v>
       </c>
@@ -5208,7 +5681,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>643</v>
       </c>
@@ -5234,7 +5707,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>651</v>
       </c>
@@ -5260,7 +5733,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>659</v>
       </c>
@@ -5286,7 +5759,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>667</v>
       </c>
@@ -5312,7 +5785,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>675</v>
       </c>
@@ -5338,7 +5811,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>683</v>
       </c>
@@ -5364,7 +5837,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>691</v>
       </c>
@@ -5390,7 +5863,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>699</v>
       </c>
@@ -5416,7 +5889,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>707</v>
       </c>
@@ -5442,7 +5915,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>715</v>
       </c>
@@ -5468,7 +5941,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>723</v>
       </c>
@@ -5494,7 +5967,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>731</v>
       </c>
@@ -5520,7 +5993,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>739</v>
       </c>
@@ -5546,34 +6019,33 @@
         <v>746</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
         <v>747</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>748</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>749</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>750</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" t="s">
         <v>751</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" t="s">
         <v>752</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" t="s">
         <v>753</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" t="s">
         <v>754</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>